--- a/data/trans_dic/P55$privada-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P55$privada-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05307078254784616</v>
+        <v>0.05201221713054865</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03065759915598898</v>
+        <v>0.02994029700432356</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1286297583921831</v>
+        <v>0.1280393878758407</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09679682740916001</v>
+        <v>0.1099046213073688</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05219938703187905</v>
+        <v>0.05251945354598711</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07846024441587446</v>
+        <v>0.07458229173421092</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1253457134705304</v>
+        <v>0.125273784237884</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1016685057013803</v>
+        <v>0.10259395231567</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04494201020424268</v>
+        <v>0.04870663452039305</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07736959923857814</v>
+        <v>0.0805228282432446</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1463573825909429</v>
+        <v>0.1419056740680593</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2831492513917476</v>
+        <v>0.2822194389547229</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1844745148187547</v>
+        <v>0.1915046829441365</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2615673082072256</v>
+        <v>0.2404518975498433</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3076451230494248</v>
+        <v>0.3082555845687064</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.362047741164365</v>
+        <v>0.3615632884045069</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2329427551070492</v>
+        <v>0.230789127327447</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3006756510961681</v>
+        <v>0.2887004889000502</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2372343263537254</v>
+        <v>0.2361576648308544</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2790769392148724</v>
+        <v>0.2823947480979098</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1756060064289464</v>
+        <v>0.1741284980883686</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2476521986712752</v>
+        <v>0.2434202389483448</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2365799388276915</v>
+        <v>0.2371290288165357</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02010408520116508</v>
+        <v>0.02005883126593307</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0678991501326924</v>
+        <v>0.07191886870279518</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07895518715433011</v>
+        <v>0.08157166546527432</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04611411101575489</v>
+        <v>0.04602796508105638</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06799463205874505</v>
+        <v>0.07920369498740061</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07046411031388597</v>
+        <v>0.07172445952538034</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02767635624665224</v>
+        <v>0.02688053706059291</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1120832839477467</v>
+        <v>0.1180342470475934</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07011589777734697</v>
+        <v>0.06598672352299706</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09062478695859959</v>
+        <v>0.09419393769335589</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05378256046275814</v>
+        <v>0.05764659363539974</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1082855677897916</v>
+        <v>0.1077470043336309</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1958528389914117</v>
+        <v>0.1833899297505958</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2896472364196526</v>
+        <v>0.294719518095805</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2852279745061242</v>
+        <v>0.3000577020931199</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2214174349250462</v>
+        <v>0.1965874255101455</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2488663923263381</v>
+        <v>0.2562975801453408</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2144050869987609</v>
+        <v>0.217626686834153</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.159376942060298</v>
+        <v>0.1553544765066878</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.228842075473135</v>
+        <v>0.230355190772453</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1924261862840016</v>
+        <v>0.1889719207226404</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2179847084274687</v>
+        <v>0.2172254319134428</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1758538253878795</v>
+        <v>0.1716178961016128</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2043943287416938</v>
+        <v>0.2020423879714283</v>
       </c>
     </row>
     <row r="10">
@@ -984,34 +984,34 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03593565978195752</v>
+        <v>0.0366148667845342</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0553079785470442</v>
+        <v>0.0703947037546033</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1696742268560531</v>
+        <v>0.1802388967418249</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06134603784929887</v>
+        <v>0.05132005332525712</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1017330037898806</v>
+        <v>0.1007144061425543</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1116782268756689</v>
+        <v>0.1112883247200215</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1155788902885067</v>
+        <v>0.1161577608355763</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06346421586549707</v>
+        <v>0.06354029627462754</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1009510344369984</v>
+        <v>0.1040365058728046</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1158610968917781</v>
+        <v>0.1104229868021536</v>
       </c>
     </row>
     <row r="12">
@@ -1023,37 +1023,37 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.2745125821748359</v>
+        <v>0.2826076814056251</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2690413914573325</v>
+        <v>0.2736854264557958</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.317771773492105</v>
+        <v>0.3323852883631754</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4422303315236861</v>
+        <v>0.4459191625936627</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3002032643817915</v>
+        <v>0.2742856069488048</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3435021136933486</v>
+        <v>0.3480581571771483</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2609831171786482</v>
+        <v>0.2605203561429894</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3123988385715872</v>
+        <v>0.3179718441006809</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2213598301396326</v>
+        <v>0.2351051074397084</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2971812309261379</v>
+        <v>0.288959880747547</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.247397586053216</v>
+        <v>0.2498715452168199</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.19830834183462</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1919196917876934</v>
+        <v>0.1919196917876933</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1370286543004242</v>
+        <v>0.1135154572957022</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09430511821002112</v>
+        <v>0.09818457863788344</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07858433306262012</v>
+        <v>0.0769706755286247</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0809067896820885</v>
+        <v>0.07035069218010306</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1557595777452862</v>
+        <v>0.1482007281290799</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1492629422961542</v>
+        <v>0.1689488649124214</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1202288470444048</v>
+        <v>0.1198992438792394</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1494266224455596</v>
+        <v>0.151538707394342</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1706443282694568</v>
+        <v>0.1736021692738631</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1664083327415</v>
+        <v>0.1684226705852486</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1199083675302713</v>
+        <v>0.1231811301561416</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1411394690847506</v>
+        <v>0.1420611108519486</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4855751646207148</v>
+        <v>0.488012732731567</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3571429869589732</v>
+        <v>0.3579109197926889</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3412808080240391</v>
+        <v>0.3462837606596064</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2523756530960167</v>
+        <v>0.245598243132557</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3637421467879295</v>
+        <v>0.3568512147155769</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3666903037021971</v>
+        <v>0.3818869053389524</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3206495456915157</v>
+        <v>0.3285257401749124</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2810519364599548</v>
+        <v>0.2775481432390017</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3466128859182082</v>
+        <v>0.3493799549538174</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3281373139451453</v>
+        <v>0.3236177271604591</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.292612535340391</v>
+        <v>0.300368054658003</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2525517576038273</v>
+        <v>0.2510806657209137</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.1588485796188314</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1835715366142479</v>
+        <v>0.183571536614248</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1829482942270295</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0682851792858145</v>
+        <v>0.07104578713310664</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08412915520851511</v>
+        <v>0.08828850016397888</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09387336926364175</v>
+        <v>0.09131365325303466</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1155790652399402</v>
+        <v>0.1188981221413272</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1673194096932216</v>
+        <v>0.1656097885989236</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1227183054294035</v>
+        <v>0.1238066077226705</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1160181170356479</v>
+        <v>0.1149793726906935</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1527179646511128</v>
+        <v>0.1537697328716444</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1456119879531752</v>
+        <v>0.1476788896274832</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1220655360384813</v>
+        <v>0.1197526323796115</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1174926022305788</v>
+        <v>0.1191483386813608</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1501395177178928</v>
+        <v>0.1489857572178072</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1893449281325758</v>
+        <v>0.178478730276999</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2022522276838096</v>
+        <v>0.2093004415535017</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2044345413184652</v>
+        <v>0.2111288076292383</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2101372031363208</v>
+        <v>0.216109920190449</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.281011247141275</v>
+        <v>0.2769468120690114</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.222786168626524</v>
+        <v>0.2151716576229178</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2128831490277394</v>
+        <v>0.2134821255813046</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2160821787154768</v>
+        <v>0.2161690298306127</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2285275098359725</v>
+        <v>0.2250788044550181</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.197818613237516</v>
+        <v>0.1956086428091333</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1999395332456371</v>
+        <v>0.1975509520018247</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2017870076288533</v>
+        <v>0.2030063131159186</v>
       </c>
     </row>
     <row r="19">
@@ -1596,40 +1596,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1798</v>
+        <v>1762</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6817</v>
+        <v>6786</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4335</v>
+        <v>4922</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3184</v>
+        <v>3204</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4718</v>
+        <v>4485</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10639</v>
+        <v>10632</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7997</v>
+        <v>8070</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>4204</v>
+        <v>4556</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6802</v>
+        <v>7079</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>20178</v>
+        <v>19565</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9592</v>
+        <v>9560</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6002</v>
+        <v>6231</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7266</v>
+        <v>6679</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16304</v>
+        <v>16336</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16215</v>
+        <v>16193</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14210</v>
+        <v>14079</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>18082</v>
+        <v>17362</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20135</v>
+        <v>20044</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>21952</v>
+        <v>22213</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>16426</v>
+        <v>16288</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>21773</v>
+        <v>21401</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>32618</v>
+        <v>32693</v>
       </c>
     </row>
     <row r="8">
@@ -1776,40 +1776,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3100</v>
+        <v>3284</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3230</v>
+        <v>3337</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4602</v>
+        <v>5361</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>6225</v>
+        <v>6336</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2127</v>
+        <v>2066</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10607</v>
+        <v>11170</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8113</v>
+        <v>7635</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>12143</v>
+        <v>12622</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6333</v>
+        <v>6788</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>14780</v>
+        <v>14707</v>
       </c>
     </row>
     <row r="11">
@@ -1820,40 +1820,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9405</v>
+        <v>8807</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13224</v>
+        <v>13456</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11668</v>
+        <v>12275</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9267</v>
+        <v>8228</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>16843</v>
+        <v>17346</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18941</v>
+        <v>19225</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12247</v>
+        <v>11938</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21657</v>
+        <v>21800</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>22264</v>
+        <v>21864</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>29209</v>
+        <v>29107</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>20707</v>
+        <v>20209</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>27898</v>
+        <v>27577</v>
       </c>
     </row>
     <row r="12">
@@ -1960,34 +1960,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>836</v>
+        <v>852</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1643</v>
+        <v>2091</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7884</v>
+        <v>8375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3185</v>
+        <v>2664</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5246</v>
+        <v>5194</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7248</v>
+        <v>7222</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7864</v>
+        <v>7903</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>5068</v>
+        <v>5074</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7554</v>
+        <v>7785</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>10961</v>
+        <v>10447</v>
       </c>
     </row>
     <row r="15">
@@ -1999,37 +1999,37 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>7670</v>
+        <v>7896</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6259</v>
+        <v>6367</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9440</v>
+        <v>9874</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20548</v>
+        <v>20719</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15585</v>
+        <v>14240</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>17714</v>
+        <v>17949</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16937</v>
+        <v>16907</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>21256</v>
+        <v>21635</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>17677</v>
+        <v>18775</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>22239</v>
+        <v>21624</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>23405</v>
+        <v>23639</v>
       </c>
     </row>
     <row r="16">
@@ -2132,40 +2132,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3166</v>
+        <v>2623</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3775</v>
+        <v>3931</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2319</v>
+        <v>2271</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3605</v>
+        <v>3135</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11213</v>
+        <v>10669</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11683</v>
+        <v>13224</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9475</v>
+        <v>9449</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>16860</v>
+        <v>17098</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>16228</v>
+        <v>16509</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>19687</v>
+        <v>19926</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>12988</v>
+        <v>13343</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>22215</v>
+        <v>22360</v>
       </c>
     </row>
     <row r="19">
@@ -2176,40 +2176,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11220</v>
+        <v>11276</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14298</v>
+        <v>14329</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10071</v>
+        <v>10218</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>11247</v>
+        <v>10945</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26187</v>
+        <v>25690</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>28702</v>
+        <v>29891</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25271</v>
+        <v>25891</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>31712</v>
+        <v>31316</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>32962</v>
+        <v>33225</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>38821</v>
+        <v>38286</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>31695</v>
+        <v>32536</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>39750</v>
+        <v>39519</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8643</v>
+        <v>8993</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>12297</v>
+        <v>12905</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11402</v>
+        <v>11091</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>19547</v>
+        <v>20108</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>38638</v>
+        <v>38243</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>34303</v>
+        <v>34608</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>31019</v>
+        <v>30741</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>54557</v>
+        <v>54933</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>52056</v>
+        <v>52795</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>51963</v>
+        <v>50978</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>45684</v>
+        <v>46327</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>79028</v>
+        <v>78420</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23967</v>
+        <v>22591</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>29563</v>
+        <v>30593</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>24830</v>
+        <v>25643</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>35539</v>
+        <v>36549</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>64892</v>
+        <v>63953</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>62275</v>
+        <v>60147</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>56917</v>
+        <v>57077</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>77193</v>
+        <v>77224</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>81699</v>
+        <v>80466</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>84211</v>
+        <v>83270</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>77741</v>
+        <v>76812</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>106213</v>
+        <v>106855</v>
       </c>
     </row>
     <row r="24">
